--- a/medicine/Pharmacie/Johannes_Burchart_X/Johannes_Burchart_X.xlsx
+++ b/medicine/Pharmacie/Johannes_Burchart_X/Johannes_Burchart_X.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johannes Burchart X (von Bélavary de Sycava), couramment appelé von Scycava (1843-1891), est un pharmacien germano-balte d'Estonie.
 Fils unique de Johannes Burchart IX, il est le dernier propriétaire-pharmacien de la dynastie des Burchart qui dirigea la Raeapteek de 1582 à 1911. 
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De faible constitution, il réside principalement sur les bords de la Méditerranée et de la mer Noire à Kharkov. La pharmacie gérée par ses quatre sœurs - Luise (1841-1912), Augusta (1845°), épouse du peintre munichois Julius Noerr, Margarita-Teresa (1847°), épouse du commandant von Münster, et Beata-Marguerite (1852-1872), Burchart renouvelle le bail au profit du proviseur Rudolph Lehbert, ce qui apporte un renouveau économique. Dernier membre masculin de la "branche de Tallin", il meurt à Merano en 1891. La famille Burchart vend la pharmacie à Rudolf Carl Georg Lehbert (1858-1928) en 1911, mettant ainsi fin à la vieille entreprise familiale.
 </t>
@@ -543,7 +557,9 @@
           <t>Source, lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustavson. H., Tallinna vanadest apteekidest. Tallinn 1972 sur raeapteek.ee
 Erich Seuberlich: Liv- und Estlands älteste Apotheken: Beiträge zu deren Geschichte, p.183, Druck von W.F. Häcker, 1912
